--- a/modelagens/modelo_fisico.xlsx
+++ b/modelagens/modelo_fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SENAI\Projeto SP Med. Group\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F03BC6-7D13-449C-9126-30122B8F3589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F439C87-6EAD-42A2-BAE0-192D8349D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{FDBA66AC-6E60-4569-B3D6-A92166616436}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>tipoUsuario</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Ligia</t>
   </si>
   <si>
-    <t>Data_Nasc</t>
-  </si>
-  <si>
     <t>Telefone</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Av. Barão Limeira, 532, São Paulo, SP</t>
   </si>
   <si>
-    <t>12346-21345</t>
-  </si>
-  <si>
     <t>situacao</t>
   </si>
   <si>
@@ -370,6 +364,12 @@
   </si>
   <si>
     <t>Psiquiatria</t>
+  </si>
+  <si>
+    <t>4002-8922</t>
+  </si>
+  <si>
+    <t>dataNasc</t>
   </si>
 </sst>
 </file>
@@ -534,18 +534,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -571,10 +559,22 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61DDDA6-444B-47DB-9316-73D643605290}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,19 +906,18 @@
     <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -949,509 +948,499 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>7</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>8</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>11</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="B22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="13">
+        <v>94839859000</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>2</v>
+      </c>
+      <c r="B24" s="14">
         <v>6</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="13">
+        <v>73556944057</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>3</v>
+      </c>
+      <c r="B25" s="14">
         <v>7</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="26">
+        <v>28773</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="13">
+        <v>16839338002</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>4</v>
+      </c>
+      <c r="B26" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18">
-        <v>2</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="13">
+        <v>14332654765</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>5</v>
+      </c>
+      <c r="B27" s="14">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="13">
+        <v>91305348010</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>6</v>
+      </c>
+      <c r="B28" s="14">
         <v>10</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="13">
+        <v>79799299004</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>7</v>
+      </c>
+      <c r="B29" s="14">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18">
-        <v>3</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>9</v>
-      </c>
-      <c r="B17" s="18">
-        <v>3</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="C29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18">
-        <v>3</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>1</v>
-      </c>
-      <c r="B23" s="18">
-        <v>5</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="17">
-        <v>94839859000</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>2</v>
-      </c>
-      <c r="B24" s="18">
-        <v>6</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="17">
-        <v>73556944057</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>3</v>
-      </c>
-      <c r="B25" s="18">
-        <v>7</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="30">
-        <v>28773</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="17">
-        <v>16839338002</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>4</v>
-      </c>
-      <c r="B26" s="18">
-        <v>8</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="17">
-        <v>14332654765</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>5</v>
-      </c>
-      <c r="B27" s="18">
-        <v>9</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="17">
-        <v>91305348010</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>6</v>
-      </c>
-      <c r="B28" s="18">
-        <v>10</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="F29" s="26">
+        <v>43223</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="17">
-        <v>79799299004</v>
-      </c>
-      <c r="J28" s="17" t="s">
+      <c r="H29" s="13">
+        <v>13771913039</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>7</v>
-      </c>
-      <c r="B29" s="18">
-        <v>11</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="30">
-        <v>43223</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="17">
-        <v>13771913039</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1464,9 +1453,9 @@
       <c r="C34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -1485,7 +1474,7 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -1504,7 +1493,7 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -1512,456 +1501,456 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
+      <c r="A42" s="18">
         <v>1</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="18">
         <v>11</v>
       </c>
-      <c r="C42" s="22">
-        <v>3</v>
-      </c>
-      <c r="D42" s="22">
+      <c r="C42" s="18">
+        <v>3</v>
+      </c>
+      <c r="D42" s="18">
         <v>1</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>2</v>
+      </c>
+      <c r="B43" s="18">
+        <v>6</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2</v>
+      </c>
+      <c r="E43" s="28">
+        <v>43983.416666666664</v>
+      </c>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>3</v>
+      </c>
+      <c r="B44" s="18">
+        <v>7</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2</v>
+      </c>
+      <c r="D44" s="18">
+        <v>1</v>
+      </c>
+      <c r="E44" s="28">
+        <v>44014.458333333336</v>
+      </c>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>4</v>
+      </c>
+      <c r="B45" s="18">
+        <v>6</v>
+      </c>
+      <c r="C45" s="18">
+        <v>2</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="28">
+        <v>43253.416666666664</v>
+      </c>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>5</v>
+      </c>
+      <c r="B46" s="18">
+        <v>8</v>
+      </c>
+      <c r="C46" s="18">
+        <v>1</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2</v>
+      </c>
+      <c r="E46" s="28">
+        <v>43648.458333333336</v>
+      </c>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>6</v>
+      </c>
+      <c r="B47" s="18">
+        <v>11</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3</v>
+      </c>
+      <c r="D47" s="18">
+        <v>3</v>
+      </c>
+      <c r="E47" s="28">
+        <v>44046.625</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>7</v>
+      </c>
+      <c r="B48" s="18">
+        <v>8</v>
+      </c>
+      <c r="C48" s="18">
+        <v>2</v>
+      </c>
+      <c r="D48" s="18">
+        <v>3</v>
+      </c>
+      <c r="E48" s="28">
+        <v>43346.458333333336</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="27"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>2</v>
-      </c>
-      <c r="B43" s="22">
-        <v>6</v>
-      </c>
-      <c r="C43" s="22">
-        <v>2</v>
-      </c>
-      <c r="D43" s="22">
-        <v>2</v>
-      </c>
-      <c r="E43" s="32">
-        <v>43983.416666666664</v>
-      </c>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
-        <v>3</v>
-      </c>
-      <c r="B44" s="22">
-        <v>7</v>
-      </c>
-      <c r="C44" s="22">
-        <v>2</v>
-      </c>
-      <c r="D44" s="22">
-        <v>1</v>
-      </c>
-      <c r="E44" s="32">
-        <v>44014.458333333336</v>
-      </c>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>4</v>
-      </c>
-      <c r="B45" s="22">
-        <v>6</v>
-      </c>
-      <c r="C45" s="22">
-        <v>2</v>
-      </c>
-      <c r="D45" s="22">
-        <v>1</v>
-      </c>
-      <c r="E45" s="32">
-        <v>43253.416666666664</v>
-      </c>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
-        <v>5</v>
-      </c>
-      <c r="B46" s="22">
-        <v>8</v>
-      </c>
-      <c r="C46" s="22">
-        <v>1</v>
-      </c>
-      <c r="D46" s="22">
-        <v>2</v>
-      </c>
-      <c r="E46" s="32">
-        <v>43648.458333333336</v>
-      </c>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>6</v>
-      </c>
-      <c r="B47" s="22">
-        <v>11</v>
-      </c>
-      <c r="C47" s="22">
-        <v>3</v>
-      </c>
-      <c r="D47" s="22">
-        <v>3</v>
-      </c>
-      <c r="E47" s="32">
-        <v>44046.625</v>
-      </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>7</v>
-      </c>
-      <c r="B48" s="22">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22">
-        <v>2</v>
-      </c>
-      <c r="D48" s="22">
-        <v>3</v>
-      </c>
-      <c r="E48" s="32">
-        <v>43346.458333333336</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="31"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="31"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>1</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="24" t="s">
+      <c r="E55" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="F55" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
+        <v>1</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="24">
+        <v>2</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>3</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="33"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="29" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="28">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="21">
         <v>1</v>
       </c>
-      <c r="B64" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="28">
+      <c r="B71" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="21">
         <v>2</v>
       </c>
-      <c r="B65" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
-        <v>3</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="26" t="s">
+      <c r="B72" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="25">
-        <v>1</v>
-      </c>
-      <c r="B71" s="25" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="21">
+        <v>3</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="25">
-        <v>2</v>
-      </c>
-      <c r="B72" s="25" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="21">
+        <v>4</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="25">
-        <v>3</v>
-      </c>
-      <c r="B73" s="25" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="21">
+        <v>5</v>
+      </c>
+      <c r="B75" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
-        <v>4</v>
-      </c>
-      <c r="B74" s="25" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="21">
+        <v>6</v>
+      </c>
+      <c r="B76" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="25">
-        <v>5</v>
-      </c>
-      <c r="B75" s="25" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>7</v>
+      </c>
+      <c r="B77" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
-        <v>6</v>
-      </c>
-      <c r="B76" s="25" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>8</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="25">
-        <v>7</v>
-      </c>
-      <c r="B77" s="25" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="21">
+        <v>9</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
-        <v>8</v>
-      </c>
-      <c r="B78" s="25" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="21">
+        <v>10</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
-        <v>9</v>
-      </c>
-      <c r="B79" s="25" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="21">
+        <v>11</v>
+      </c>
+      <c r="B81" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="25">
-        <v>10</v>
-      </c>
-      <c r="B80" s="25" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
+        <v>12</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>11</v>
-      </c>
-      <c r="B81" s="25" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>13</v>
+      </c>
+      <c r="B83" s="21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
-        <v>12</v>
-      </c>
-      <c r="B82" s="25" t="s">
+      <c r="C83" s="29"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>14</v>
+      </c>
+      <c r="B84" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
-        <v>13</v>
-      </c>
-      <c r="B83" s="25" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <v>15</v>
+      </c>
+      <c r="B85" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="34"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
-        <v>14</v>
-      </c>
-      <c r="B84" s="25" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
+        <v>16</v>
+      </c>
+      <c r="B86" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
-        <v>15</v>
-      </c>
-      <c r="B85" s="25" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
+        <v>17</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
-        <v>16</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
-        <v>17</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +1967,7 @@
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{EFF40982-B6C0-4B04-98AA-B3059D622E1D}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{80795C59-5F78-4DB3-9A00-9D3916FB274D}"/>
-    <hyperlink ref="F24" r:id="rId3" xr:uid="{92881F47-C076-4E35-820E-14490D3F9C4D}"/>
+    <hyperlink ref="E24" r:id="rId3" xr:uid="{92881F47-C076-4E35-820E-14490D3F9C4D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/modelagens/modelo_fisico.xlsx
+++ b/modelagens/modelo_fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SENAI\Projeto SP Med. Group\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F439C87-6EAD-42A2-BAE0-192D8349D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BC4939-D2AC-4C79-BD20-4ADA6C1B6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{FDBA66AC-6E60-4569-B3D6-A92166616436}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>tipoUsuario</t>
   </si>
@@ -222,9 +222,6 @@
     <t>joao@hotmail.com</t>
   </si>
   <si>
-    <t>xxxxxxxxx</t>
-  </si>
-  <si>
     <t>idTipoU</t>
   </si>
   <si>
@@ -370,6 +367,12 @@
   </si>
   <si>
     <t>dataNasc</t>
+  </si>
+  <si>
+    <t>adm12345</t>
+  </si>
+  <si>
+    <t>xxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -515,18 +518,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -893,7 +894,7 @@
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,22 +903,22 @@
     <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -948,1009 +949,1012 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>8</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="B22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="11">
+        <v>94839859000</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>2</v>
+      </c>
+      <c r="B24" s="12">
         <v>6</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="11">
+        <v>73556944057</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>3</v>
+      </c>
+      <c r="B25" s="12">
         <v>7</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14">
-        <v>3</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>7</v>
-      </c>
-      <c r="B15" s="14">
-        <v>3</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>8</v>
-      </c>
-      <c r="B16" s="14">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>9</v>
-      </c>
-      <c r="B17" s="14">
-        <v>3</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>10</v>
-      </c>
-      <c r="B18" s="14">
-        <v>3</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>11</v>
-      </c>
-      <c r="B19" s="14">
-        <v>3</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="14">
-        <v>5</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="13">
-        <v>94839859000</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>2</v>
-      </c>
-      <c r="B24" s="14">
-        <v>6</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="13">
-        <v>73556944057</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>3</v>
-      </c>
-      <c r="B25" s="14">
-        <v>7</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <v>28773</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <v>16839338002</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>4</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>8</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <v>14332654765</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>5</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>9</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <v>91305348010</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>6</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>10</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>79799299004</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>7</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>11</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="24">
         <v>43223</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <v>13771913039</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="D33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>17</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>16</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="27"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>1</v>
+      </c>
+      <c r="B42" s="16">
+        <v>11</v>
+      </c>
+      <c r="C42" s="16">
+        <v>3</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>2</v>
+      </c>
+      <c r="B43" s="16">
+        <v>6</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2</v>
+      </c>
+      <c r="D43" s="16">
+        <v>2</v>
+      </c>
+      <c r="E43" s="26">
+        <v>43983.416666666664</v>
+      </c>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>3</v>
+      </c>
+      <c r="B44" s="16">
+        <v>7</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="26">
+        <v>44014.458333333336</v>
+      </c>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>4</v>
+      </c>
+      <c r="B45" s="16">
+        <v>6</v>
+      </c>
+      <c r="C45" s="16">
+        <v>2</v>
+      </c>
+      <c r="D45" s="16">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26">
+        <v>43253.416666666664</v>
+      </c>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>5</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="B46" s="16">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1</v>
+      </c>
+      <c r="D46" s="16">
+        <v>2</v>
+      </c>
+      <c r="E46" s="26">
+        <v>43648.458333333336</v>
+      </c>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>6</v>
+      </c>
+      <c r="B47" s="16">
+        <v>11</v>
+      </c>
+      <c r="C47" s="16">
+        <v>3</v>
+      </c>
+      <c r="D47" s="16">
+        <v>3</v>
+      </c>
+      <c r="E47" s="26">
+        <v>44046.625</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>7</v>
+      </c>
+      <c r="B48" s="16">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16">
+        <v>2</v>
+      </c>
+      <c r="D48" s="16">
+        <v>3</v>
+      </c>
+      <c r="E48" s="26">
+        <v>43346.458333333336</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="25"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="28"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>1</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>2</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>3</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="B70" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
         <v>1</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B71" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="19">
         <v>2</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B72" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="19">
+        <v>3</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="19">
+        <v>4</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="19">
+        <v>5</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="19">
+        <v>6</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
+        <v>7</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="19">
+        <v>8</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="19">
+        <v>9</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="19">
         <v>10</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="B80" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="19">
+        <v>11</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="19">
+        <v>12</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="19">
+        <v>13</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="27"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2</v>
-      </c>
-      <c r="B35" s="5">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="B84" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>3</v>
-      </c>
-      <c r="B36" s="5">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="B85" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="19">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
-        <v>1</v>
-      </c>
-      <c r="B42" s="18">
-        <v>11</v>
-      </c>
-      <c r="C42" s="18">
-        <v>3</v>
-      </c>
-      <c r="D42" s="18">
-        <v>1</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="18">
-        <v>2</v>
-      </c>
-      <c r="B43" s="18">
-        <v>6</v>
-      </c>
-      <c r="C43" s="18">
-        <v>2</v>
-      </c>
-      <c r="D43" s="18">
-        <v>2</v>
-      </c>
-      <c r="E43" s="28">
-        <v>43983.416666666664</v>
-      </c>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="18">
-        <v>3</v>
-      </c>
-      <c r="B44" s="18">
-        <v>7</v>
-      </c>
-      <c r="C44" s="18">
-        <v>2</v>
-      </c>
-      <c r="D44" s="18">
-        <v>1</v>
-      </c>
-      <c r="E44" s="28">
-        <v>44014.458333333336</v>
-      </c>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
-        <v>4</v>
-      </c>
-      <c r="B45" s="18">
-        <v>6</v>
-      </c>
-      <c r="C45" s="18">
-        <v>2</v>
-      </c>
-      <c r="D45" s="18">
-        <v>1</v>
-      </c>
-      <c r="E45" s="28">
-        <v>43253.416666666664</v>
-      </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="18">
-        <v>5</v>
-      </c>
-      <c r="B46" s="18">
-        <v>8</v>
-      </c>
-      <c r="C46" s="18">
-        <v>1</v>
-      </c>
-      <c r="D46" s="18">
-        <v>2</v>
-      </c>
-      <c r="E46" s="28">
-        <v>43648.458333333336</v>
-      </c>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
-        <v>6</v>
-      </c>
-      <c r="B47" s="18">
-        <v>11</v>
-      </c>
-      <c r="C47" s="18">
-        <v>3</v>
-      </c>
-      <c r="D47" s="18">
-        <v>3</v>
-      </c>
-      <c r="E47" s="28">
-        <v>44046.625</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="18">
-        <v>7</v>
-      </c>
-      <c r="B48" s="18">
-        <v>8</v>
-      </c>
-      <c r="C48" s="18">
-        <v>2</v>
-      </c>
-      <c r="D48" s="18">
-        <v>3</v>
-      </c>
-      <c r="E48" s="28">
-        <v>43346.458333333336</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D51" s="27"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="B86" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="19">
         <v>17</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>1</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="30"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
-        <v>1</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
-        <v>2</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
-        <v>3</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
-        <v>1</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
-        <v>2</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
-        <v>3</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
-        <v>4</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
-        <v>5</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
-        <v>6</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="21">
-        <v>7</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
-        <v>8</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="21">
-        <v>9</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="21">
-        <v>10</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="21">
-        <v>11</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="21">
-        <v>12</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="21">
-        <v>13</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" s="29"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
-        <v>14</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="21">
-        <v>15</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="21">
-        <v>16</v>
-      </c>
-      <c r="B86" s="21" t="s">
+      <c r="B87" s="19" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="21">
-        <v>17</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1959,17 +1963,19 @@
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A21:I21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{EFF40982-B6C0-4B04-98AA-B3059D622E1D}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{80795C59-5F78-4DB3-9A00-9D3916FB274D}"/>
     <hyperlink ref="E24" r:id="rId3" xr:uid="{92881F47-C076-4E35-820E-14490D3F9C4D}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{17A7AB74-ED33-46B1-970C-3F77027CE867}"/>
+    <hyperlink ref="E25" r:id="rId5" xr:uid="{3E870377-BC95-40FF-A78A-4E1E9DA06724}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>